--- a/Doc/PlanningReel.xlsx
+++ b/Doc/PlanningReel.xlsx
@@ -1,21 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planing" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>MyMoviesList</t>
+  </si>
+  <si>
+    <t>De Sousa Soares Kevin</t>
+  </si>
+  <si>
+    <t>Immersion et analyse globale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse détaillée (inventaire des fonctionnalités, maquettes d’écrans, etc) </t>
+  </si>
+  <si>
+    <t>Documentation ( technique et fonctionnelle)</t>
+  </si>
+  <si>
+    <t>Carnet de bord</t>
+  </si>
+  <si>
+    <t>Développement fonctions base de donnée</t>
+  </si>
+  <si>
+    <t>Développement fonctions affichage</t>
+  </si>
+  <si>
+    <t>Page connexion ( gestion connexion / déconnexion)</t>
+  </si>
+  <si>
+    <t>Page accueil</t>
+  </si>
+  <si>
+    <t>Page film ( affichage, ajouter liste)</t>
+  </si>
+  <si>
+    <t>Page liste</t>
+  </si>
+  <si>
+    <t>Page inscritpion</t>
+  </si>
+  <si>
+    <t>Page profil</t>
+  </si>
+  <si>
+    <t>Rédaction test</t>
+  </si>
+  <si>
+    <t>Execution test et correction de bugs</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +76,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -40,15 +131,321 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -347,12 +744,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="9">
+        <v>1503862</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="13">
+        <v>1503863</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="9">
+        <v>1503864</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/PlanningReel.xlsx
+++ b/Doc/PlanningReel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>MyMoviesList</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Page liste</t>
   </si>
   <si>
-    <t>Page inscritpion</t>
-  </si>
-  <si>
     <t>Page profil</t>
   </si>
   <si>
@@ -62,6 +59,39 @@
   </si>
   <si>
     <t>Execution test et correction de bugs</t>
+  </si>
+  <si>
+    <t>Jour 1</t>
+  </si>
+  <si>
+    <t>Jour 2</t>
+  </si>
+  <si>
+    <t>Jour 3</t>
+  </si>
+  <si>
+    <t>Jour 4</t>
+  </si>
+  <si>
+    <t>Jour 5</t>
+  </si>
+  <si>
+    <t>Jour 6</t>
+  </si>
+  <si>
+    <t>Jour 7</t>
+  </si>
+  <si>
+    <t>Jour 8</t>
+  </si>
+  <si>
+    <t>Jour 9</t>
+  </si>
+  <si>
+    <t>Jour 10</t>
+  </si>
+  <si>
+    <t>Page inscription</t>
   </si>
 </sst>
 </file>
@@ -123,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -133,36 +163,14 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -170,10 +178,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -183,10 +204,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -194,43 +215,21 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -242,29 +241,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
@@ -276,26 +253,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -304,9 +266,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -317,9 +277,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -333,9 +291,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -344,9 +300,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -357,35 +311,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -393,55 +319,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,24 +661,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="5.28515625" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="2" max="41" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -776,11 +692,11 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -795,296 +711,762 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="9">
+      <c r="B4" s="3">
         <v>1503862</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="13">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4">
         <v>1503863</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="9">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="3">
         <v>1503864</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="3">
+        <v>1503865</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="3">
+        <v>1503868</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="3">
+        <v>1503869</v>
+      </c>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="3">
+        <v>1503870</v>
+      </c>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="3">
+        <v>1503871</v>
+      </c>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="3">
+        <v>1503872</v>
+      </c>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="3">
+        <v>1503875</v>
+      </c>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="6"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28"/>
+      <c r="AO16" s="28"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="18"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="21"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="18"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AL18" s="22"/>
+      <c r="AM18" s="22"/>
+      <c r="AN18" s="22"/>
+      <c r="AO18" s="23"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1102,10 +1484,27 @@
       <c r="O19" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="20">
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/PlanningReel.xlsx
+++ b/Doc/PlanningReel.xlsx
@@ -323,18 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -354,11 +342,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,7 +664,7 @@
   <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="L15" sqref="L15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +674,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -693,7 +693,7 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
@@ -712,759 +712,759 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26" t="s">
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26" t="s">
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26" t="s">
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26" t="s">
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26" t="s">
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26" t="s">
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="3">
+      <c r="B4" s="25">
         <v>1503862</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="26">
         <v>1503863</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="3">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="25">
         <v>1503864</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="3">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="25">
         <v>1503865</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="3">
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="25">
         <v>1503868</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="3">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="25">
         <v>1503869</v>
       </c>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="3">
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="25">
         <v>1503870</v>
       </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="3">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="25">
         <v>1503871</v>
       </c>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="3">
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="25">
         <v>1503872</v>
       </c>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="3">
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="25">
         <v>1503875</v>
       </c>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="6"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="27"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="11"/>
-      <c r="AL5" s="11"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="11"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="11"/>
-      <c r="AL6" s="11"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
-      <c r="AO6" s="11"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
-      <c r="AO7" s="11"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
-      <c r="AO8" s="11"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="11"/>
-      <c r="AO11" s="11"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
-      <c r="AO12" s="11"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="11"/>
-      <c r="AN14" s="11"/>
-      <c r="AO14" s="11"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
-      <c r="AO15" s="11"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28"/>
-      <c r="AO16" s="28"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="23"/>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
-      <c r="AF17" s="20"/>
-      <c r="AG17" s="20"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="20"/>
-      <c r="AM17" s="20"/>
-      <c r="AN17" s="20"/>
-      <c r="AO17" s="21"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="17"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="22"/>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="22"/>
-      <c r="AO18" s="23"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="19"/>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -1485,12 +1485,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="B3:E3"/>
@@ -1505,6 +1499,12 @@
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:U4"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AL4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/PlanningReel.xlsx
+++ b/Doc/PlanningReel.xlsx
@@ -344,9 +344,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -354,6 +351,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,7 +664,7 @@
   <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:M15"/>
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,129 +712,129 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24" t="s">
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24" t="s">
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24" t="s">
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24" t="s">
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24" t="s">
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24" t="s">
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>1503862</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="28"/>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>1503863</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="25">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="24">
         <v>1503864</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="25">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="24">
         <v>1503865</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="25">
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="24">
         <v>1503868</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="25">
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="24">
         <v>1503869</v>
       </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="25">
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="24">
         <v>1503870</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="25">
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="24">
         <v>1503871</v>
       </c>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="25">
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="24">
         <v>1503872</v>
       </c>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="25">
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="24">
         <v>1503875</v>
       </c>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="27"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="26"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1485,6 +1485,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="B3:E3"/>
@@ -1499,12 +1505,6 @@
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:U4"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AL4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/PlanningReel.xlsx
+++ b/Doc/PlanningReel.xlsx
@@ -319,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -344,6 +344,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,7 +666,7 @@
   <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,129 +714,129 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27" t="s">
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27" t="s">
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27" t="s">
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27" t="s">
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27" t="s">
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="24">
+      <c r="B4" s="26">
         <v>1503862</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="25">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="27">
         <v>1503863</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="24">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="26">
         <v>1503864</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="24">
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="26">
         <v>1503865</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="24">
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="26">
         <v>1503868</v>
       </c>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="24">
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="26">
         <v>1503869</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="24">
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="26">
         <v>1503870</v>
       </c>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="24">
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="26">
         <v>1503871</v>
       </c>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="24">
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="26">
         <v>1503872</v>
       </c>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="24">
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="26">
         <v>1503875</v>
       </c>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="26"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="28"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -944,8 +946,8 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="24"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
@@ -987,7 +989,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -1168,8 +1170,8 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="7"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="24"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>

--- a/Doc/PlanningReel.xlsx
+++ b/Doc/PlanningReel.xlsx
@@ -319,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -346,6 +346,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,12 +358,11 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,7 +668,7 @@
   <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,129 +716,129 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29" t="s">
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29" t="s">
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29" t="s">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29" t="s">
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29" t="s">
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="26">
+      <c r="B4" s="27">
         <v>1503862</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="27">
+      <c r="F4" s="28">
         <v>1503863</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="26">
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="27">
         <v>1503864</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="26">
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="27">
         <v>1503865</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="26">
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="27">
         <v>1503868</v>
       </c>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="26">
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="27">
         <v>1503869</v>
       </c>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="26">
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="27">
         <v>1503870</v>
       </c>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="26">
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="27">
         <v>1503871</v>
       </c>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="26">
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="27">
         <v>1503872</v>
       </c>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="26">
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="27">
         <v>1503875</v>
       </c>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27"/>
-      <c r="AO4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="29"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1389,14 +1391,14 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="16"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="32"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
@@ -1487,12 +1489,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="B3:E3"/>
@@ -1507,6 +1503,12 @@
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:U4"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AL4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/PlanningReel.xlsx
+++ b/Doc/PlanningReel.xlsx
@@ -319,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -346,9 +346,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -358,11 +357,13 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +669,7 @@
   <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,129 +717,129 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26" t="s">
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26" t="s">
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26" t="s">
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26" t="s">
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26" t="s">
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26" t="s">
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26" t="s">
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="27">
+      <c r="B4" s="28">
         <v>1503862</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="28">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29">
         <v>1503863</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="27">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="28">
         <v>1503864</v>
       </c>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="27">
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="28">
         <v>1503865</v>
       </c>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="27">
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="28">
         <v>1503868</v>
       </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="27">
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="28">
         <v>1503869</v>
       </c>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="27">
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="28">
         <v>1503870</v>
       </c>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="27">
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="28">
         <v>1503871</v>
       </c>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="27">
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="28">
         <v>1503872</v>
       </c>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="27">
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="28">
         <v>1503875</v>
       </c>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="30"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -950,7 +951,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="25"/>
       <c r="Q7" s="24"/>
-      <c r="R7" s="7"/>
+      <c r="R7" s="24"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -996,7 +997,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="S8" s="24"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
@@ -1042,8 +1043,8 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="24"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
@@ -1391,17 +1392,17 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="31"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="32"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
       <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
@@ -1489,6 +1490,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="B3:E3"/>
@@ -1503,12 +1510,6 @@
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:U4"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AL4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/PlanningReel.xlsx
+++ b/Doc/PlanningReel.xlsx
@@ -98,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +119,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -319,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -348,6 +355,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,13 +368,10 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,7 +677,7 @@
   <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,129 +725,129 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31" t="s">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31" t="s">
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31" t="s">
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31" t="s">
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31" t="s">
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31" t="s">
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="28">
+      <c r="B4" s="30">
         <v>1503862</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="29">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="31">
         <v>1503863</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="28">
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="30">
         <v>1503864</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="28">
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="30">
         <v>1503865</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="28">
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="30">
         <v>1503868</v>
       </c>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="28">
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="30">
         <v>1503869</v>
       </c>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="28">
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="30">
         <v>1503870</v>
       </c>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="28">
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="30">
         <v>1503871</v>
       </c>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="28">
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="30">
         <v>1503872</v>
       </c>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="28">
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="30">
         <v>1503875</v>
       </c>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="30"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="32"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -956,7 +964,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
+      <c r="W7" s="24"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
@@ -1000,7 +1008,7 @@
       <c r="S8" s="24"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="V8" s="24"/>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
@@ -1043,7 +1051,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
-      <c r="T9" s="33"/>
+      <c r="T9" s="28"/>
       <c r="U9" s="24"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
@@ -1137,7 +1145,7 @@
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
+      <c r="X11" s="24"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
@@ -1318,7 +1326,7 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
+      <c r="Y15" s="34"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
@@ -1403,10 +1411,10 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
-      <c r="T17" s="16"/>
+      <c r="T17" s="27"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
@@ -1490,12 +1498,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="B3:E3"/>
@@ -1510,6 +1512,12 @@
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:U4"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AL4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/PlanningReel.xlsx
+++ b/Doc/PlanningReel.xlsx
@@ -356,9 +356,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,10 +366,12 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,7 +677,7 @@
   <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,66 +725,66 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29" t="s">
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29" t="s">
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29" t="s">
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29" t="s">
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29" t="s">
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29" t="s">
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29" t="s">
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -793,7 +793,7 @@
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
-      <c r="E4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="31">
         <v>1503863</v>
       </c>
@@ -967,9 +967,9 @@
       <c r="W7" s="24"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="25"/>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
@@ -1012,8 +1012,8 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="25"/>
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
@@ -1237,9 +1237,9 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
+      <c r="Z13" s="25"/>
       <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
+      <c r="AB13" s="24"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
@@ -1326,7 +1326,7 @@
       <c r="V15" s="7"/>
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="34"/>
+      <c r="Y15" s="29"/>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
@@ -1417,8 +1417,8 @@
       <c r="W17" s="27"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
       <c r="AB17" s="16"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
@@ -1498,6 +1498,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="B3:E3"/>
@@ -1512,12 +1518,6 @@
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:U4"/>
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AL4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Doc/PlanningReel.xlsx
+++ b/Doc/PlanningReel.xlsx
@@ -357,6 +357,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -364,9 +367,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,7 +677,7 @@
   <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+      <selection activeCell="AE17" sqref="AE17:AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,129 +725,129 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33" t="s">
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33" t="s">
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33" t="s">
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33" t="s">
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33" t="s">
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33" t="s">
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="30">
+      <c r="B4" s="31">
         <v>1503862</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="34"/>
-      <c r="F4" s="31">
+      <c r="F4" s="32">
         <v>1503863</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="30">
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="31">
         <v>1503864</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="30">
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="31">
         <v>1503865</v>
       </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="30">
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="31">
         <v>1503868</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="30">
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="31">
         <v>1503869</v>
       </c>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="30">
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="31">
         <v>1503870</v>
       </c>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="30">
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="31">
         <v>1503871</v>
       </c>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="30">
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="31">
         <v>1503872</v>
       </c>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="30">
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="31">
         <v>1503875</v>
       </c>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="33"/>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -971,7 +971,7 @@
       <c r="AA7" s="29"/>
       <c r="AB7" s="25"/>
       <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
+      <c r="AD7" s="24"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7"/>
@@ -1017,7 +1017,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
+      <c r="AE8" s="24"/>
       <c r="AF8" s="7"/>
       <c r="AG8" s="7"/>
       <c r="AH8" s="7"/>
@@ -1240,7 +1240,7 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="7"/>
+      <c r="AC13" s="24"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
@@ -1288,7 +1288,7 @@
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
+      <c r="AF14" s="24"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
@@ -1419,7 +1419,7 @@
       <c r="Y17" s="16"/>
       <c r="Z17" s="27"/>
       <c r="AA17" s="27"/>
-      <c r="AB17" s="16"/>
+      <c r="AB17" s="27"/>
       <c r="AC17" s="16"/>
       <c r="AD17" s="16"/>
       <c r="AE17" s="16"/>
@@ -1498,12 +1498,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="B3:E3"/>
@@ -1518,6 +1512,12 @@
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:U4"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AL4:AO4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
